--- a/src/main/resources/jxls_templates/versionrouting.xlsx
+++ b/src/main/resources/jxls_templates/versionrouting.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhh\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C231C81-788D-4A90-8187-55CBBE0895D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>48038</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,12 +29,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="L3")
+          <t xml:space="preserve">jx:area(lastCell="K3")
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +42,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:each(items="rows" var="row" lastCell="L3")
+          <t xml:space="preserve">jx:each(items="rows" var="row" lastCell="K3")
 </t>
         </r>
       </text>
@@ -62,97 +58,82 @@
   </si>
   <si>
     <t>存货编码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户部番</t>
+  </si>
+  <si>
+    <t>部品名称</t>
+  </si>
+  <si>
+    <t>工艺路线名称</t>
+  </si>
+  <si>
+    <t>工艺版本名称</t>
+  </si>
+  <si>
+    <t>启动日期</t>
+  </si>
+  <si>
+    <t>停用日期</t>
+  </si>
+  <si>
+    <t>工艺要求</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>创建时间</t>
   </si>
   <si>
     <t>${row.cinvcode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${row.cinvcode1}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户部番</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${row.cinvname}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部品名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${row.cinvname1}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工艺路线名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>${row.cversion}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工艺版本名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启动日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${row.dfromdate}</t>
+  </si>
+  <si>
+    <t>${row.dtodate}</t>
+  </si>
+  <si>
+    <t>${row.crequirement}</t>
+  </si>
+  <si>
+    <t>${row.cmemo}</t>
+  </si>
+  <si>
+    <t>${row.ccreatename}</t>
   </si>
   <si>
     <t>${row.dcreatetime}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.dfromdate}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>停用日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.dtodate}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.crequirement}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>工艺要求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.cmemo}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>${row.ccreatename}</t>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,18 +158,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,28 +327,199 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -250,6 +547,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -262,9 +574,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -272,14 +826,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,21 +835,71 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -588,125 +1186,146 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A1" sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.75" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="31.5" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/jxls_templates/versionrouting.xlsx
+++ b/src/main/resources/jxls_templates/versionrouting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B63FB-5F50-4C63-8A5F-A31D3A5E14EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CED2B1-4218-4355-8541-1DBAE9455140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +281,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,12 +301,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +609,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -613,28 +619,28 @@
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" style="7" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.21875" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -652,10 +658,10 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -667,7 +673,7 @@
       <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -687,10 +693,10 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -702,7 +708,7 @@
       <c r="J3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/jxls_templates/versionrouting.xlsx
+++ b/src/main/resources/jxls_templates/versionrouting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fengfu-pubbase\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CED2B1-4218-4355-8541-1DBAE9455140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC60BD2-6C10-411B-82CD-50606A067A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
